--- a/documents/Learning Progress.xlsx
+++ b/documents/Learning Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vragawade\Documents\GitHub\Core-JAVA-Programming\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8423873A-97CE-4519-A202-8758DB5FBE9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2846DD-6DBC-423A-B218-0F6F2DA2151E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Topics</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Current Progress</t>
+  </si>
+  <si>
+    <t>Delay</t>
   </si>
 </sst>
 </file>
@@ -187,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +224,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -396,6 +405,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,8 +692,8 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -826,8 +838,8 @@
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="12" t="s">
-        <v>35</v>
+      <c r="H6" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -849,7 +861,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="5"/>
       <c r="H7" s="11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -870,8 +882,8 @@
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="11" t="s">
-        <v>36</v>
+      <c r="H8" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -890,7 +902,7 @@
       <c r="E9" s="32"/>
       <c r="F9" s="22"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -910,7 +922,7 @@
       <c r="E10" s="33"/>
       <c r="F10" s="23"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -932,7 +944,7 @@
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -954,7 +966,7 @@
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -976,7 +988,7 @@
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -998,7 +1010,7 @@
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1018,7 +1030,7 @@
       <c r="E15" s="35"/>
       <c r="F15" s="25"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1038,7 +1050,7 @@
       <c r="E16" s="36"/>
       <c r="F16" s="26"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1060,7 +1072,7 @@
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1080,7 +1092,7 @@
       <c r="E18" s="36"/>
       <c r="F18" s="26"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1102,7 +1114,7 @@
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1122,7 +1134,7 @@
       <c r="E20" s="38"/>
       <c r="F20" s="18"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1144,7 +1156,7 @@
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1164,7 +1176,7 @@
       <c r="E22" s="38"/>
       <c r="F22" s="18"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1186,7 +1198,7 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1208,7 +1220,7 @@
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1230,7 +1242,7 @@
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1252,7 +1264,7 @@
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1274,7 +1286,7 @@
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1294,7 +1306,7 @@
       <c r="E28" s="30"/>
       <c r="F28" s="28"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1316,7 +1328,7 @@
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1338,7 +1350,7 @@
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1360,7 +1372,7 @@
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1382,7 +1394,7 @@
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="39" t="s">
         <v>36</v>
       </c>
     </row>

--- a/documents/Learning Progress.xlsx
+++ b/documents/Learning Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vragawade\Documents\GitHub\Core-JAVA-Programming\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2846DD-6DBC-423A-B218-0F6F2DA2151E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73F7BBC-7863-411A-BFE4-246790BB09DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>Topics</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Features and Architecture</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>On-time</t>
-  </si>
-  <si>
     <t>Abstract Classes</t>
   </si>
   <si>
@@ -132,12 +126,6 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>Started</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>JavaFX</t>
   </si>
   <si>
@@ -153,7 +141,13 @@
     <t>Current Progress</t>
   </si>
   <si>
-    <t>Delay</t>
+    <t>Not Yet Started</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -190,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,19 +199,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +211,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -325,15 +313,6 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -344,69 +323,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,24 +644,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
-    <col min="2" max="2" width="42.1796875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.36328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="3"/>
+    <col min="2" max="2" width="42.140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -714,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -723,63 +678,58 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="D2" s="5">
         <v>9</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="D3" s="5">
         <v>9</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D4" s="5">
@@ -788,22 +738,21 @@
       <c r="E4" s="9">
         <v>44407</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="G4" s="9">
         <v>44407</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>4.7222222222222221E-2</v>
       </c>
       <c r="D5" s="5">
@@ -812,22 +761,21 @@
       <c r="E5" s="9">
         <v>44408</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="G5" s="9">
         <v>44408</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="13">
+        <v>24</v>
+      </c>
+      <c r="C6" s="10">
         <v>9.6527777777777768E-2</v>
       </c>
       <c r="D6" s="5">
@@ -836,20 +784,19 @@
       <c r="E6" s="9">
         <v>44408</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="13">
+        <v>25</v>
+      </c>
+      <c r="C7" s="10">
         <v>0.12083333333333333</v>
       </c>
       <c r="D7" s="5">
@@ -858,545 +805,521 @@
       <c r="E7" s="9">
         <v>44408</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="9">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="13">
+        <v>26</v>
+      </c>
+      <c r="C8" s="10">
         <v>8.6111111111111124E-2</v>
       </c>
       <c r="D8" s="5">
         <v>10</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="18">
         <v>44409</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="13">
+        <v>27</v>
+      </c>
+      <c r="C9" s="10">
         <v>0.10347222222222223</v>
       </c>
       <c r="D9" s="5">
         <v>13</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="27" t="s">
+        <v>40</v>
+      </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="13">
+        <v>28</v>
+      </c>
+      <c r="C10" s="10">
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="13">
+        <v>29</v>
+      </c>
+      <c r="C11" s="10">
         <v>0.10347222222222223</v>
       </c>
       <c r="D11" s="5">
         <v>15</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>44410</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="13">
+        <v>30</v>
+      </c>
+      <c r="C12" s="10">
         <v>0.10902777777777778</v>
       </c>
       <c r="D12" s="5">
         <v>15</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>44411</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="14">
+        <v>31</v>
+      </c>
+      <c r="C13" s="11">
         <v>9.6527777777777768E-2</v>
       </c>
       <c r="D13" s="8">
         <v>15</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <v>44412</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="14">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11">
         <v>2.7083333333333334E-2</v>
       </c>
       <c r="D14" s="8">
         <v>7</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="21">
         <v>44413</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="14">
+        <v>10</v>
+      </c>
+      <c r="C15" s="11">
         <v>4.2361111111111106E-2</v>
       </c>
       <c r="D15" s="8">
         <v>7</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="14">
+        <v>11</v>
+      </c>
+      <c r="C16" s="11">
         <v>2.361111111111111E-2</v>
       </c>
       <c r="D16" s="8">
         <v>5</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="14">
+        <v>12</v>
+      </c>
+      <c r="C17" s="11">
         <v>4.0972222222222222E-2</v>
       </c>
       <c r="D17" s="8">
         <v>8</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="21">
         <v>44414</v>
       </c>
-      <c r="F17" s="24"/>
+      <c r="F17" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="14">
+        <v>13</v>
+      </c>
+      <c r="C18" s="11">
         <v>4.2361111111111106E-2</v>
       </c>
       <c r="D18" s="8">
         <v>5</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="14">
+        <v>14</v>
+      </c>
+      <c r="C19" s="11">
         <v>9.375E-2</v>
       </c>
       <c r="D19" s="8">
         <v>12</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="24">
         <v>44415</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="14">
+        <v>15</v>
+      </c>
+      <c r="C20" s="11">
         <v>0.14444444444444446</v>
       </c>
       <c r="D20" s="8">
         <v>20</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="18"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="14">
+        <v>16</v>
+      </c>
+      <c r="C21" s="11">
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="D21" s="8">
         <v>8</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="24">
         <v>44416</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="14">
+        <v>17</v>
+      </c>
+      <c r="C22" s="11">
         <v>3.4027777777777775E-2</v>
       </c>
       <c r="D22" s="8">
         <v>4</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="18"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="14">
+        <v>18</v>
+      </c>
+      <c r="C23" s="11">
         <v>2.4999999999999998E-2</v>
       </c>
       <c r="D23" s="8">
         <v>4</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="14">
         <v>44417</v>
       </c>
-      <c r="F23" s="19"/>
+      <c r="F23" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="14">
+        <v>19</v>
+      </c>
+      <c r="C24" s="11">
         <v>0.13749999999999998</v>
       </c>
       <c r="D24" s="8">
         <v>18</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="14">
         <v>44418</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="14">
+        <v>34</v>
+      </c>
+      <c r="C25" s="11">
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="D25" s="8">
         <v>5</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="15">
         <v>44419</v>
       </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="14">
+        <v>20</v>
+      </c>
+      <c r="C26" s="11">
         <v>0.17847222222222223</v>
       </c>
       <c r="D26" s="8">
         <v>24</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="15">
         <v>44420</v>
       </c>
-      <c r="F26" s="20"/>
+      <c r="F26" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="14">
+        <v>35</v>
+      </c>
+      <c r="C27" s="11">
         <v>4.3750000000000004E-2</v>
       </c>
       <c r="D27" s="8">
         <v>5</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="16">
         <v>44421</v>
       </c>
-      <c r="F27" s="27"/>
+      <c r="F27" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="14">
+        <v>21</v>
+      </c>
+      <c r="C28" s="11">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="D28" s="8">
         <v>5</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="28"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="14">
+        <v>36</v>
+      </c>
+      <c r="C29" s="11">
         <v>0.12638888888888888</v>
       </c>
       <c r="D29" s="8">
         <v>14</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="13">
         <v>44422</v>
       </c>
-      <c r="F29" s="16"/>
+      <c r="F29" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="14">
+        <v>22</v>
+      </c>
+      <c r="C30" s="11">
         <v>0.18611111111111112</v>
       </c>
       <c r="D30" s="8">
         <v>23</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="13">
         <v>44423</v>
       </c>
-      <c r="F30" s="16"/>
+      <c r="F30" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="14">
+        <v>23</v>
+      </c>
+      <c r="C31" s="11">
         <v>0.11944444444444445</v>
       </c>
       <c r="D31" s="8">
         <v>13</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="13">
         <v>44424</v>
       </c>
-      <c r="F31" s="16"/>
+      <c r="F31" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="14">
+        <v>33</v>
+      </c>
+      <c r="C32" s="11">
         <v>0.13402777777777777</v>
       </c>
       <c r="D32" s="8">
         <v>13</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="13">
         <v>44425</v>
       </c>
-      <c r="F32" s="16"/>
+      <c r="F32" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="39" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1408,6 +1331,11 @@
     <mergeCell ref="E21:E22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{10A940CC-2DAE-4A34-AF4D-1B14C8BE55FB}">
+      <formula1>"Not Yet Started,In Progress,Done,On Hold"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
